--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
@@ -656,7 +656,7 @@
         <v>0.01943583084488787</v>
       </c>
       <c r="K6">
-        <v>0.6071339948549791</v>
+        <v>0.5403464745801891</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -688,7 +688,10 @@
         <v>-0.006853219352837503</v>
       </c>
       <c r="J7">
-        <v>0.5637367041416466</v>
+        <v>0.4969491838668565</v>
+      </c>
+      <c r="K7">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -717,7 +720,10 @@
         <v>-0.01239555844019874</v>
       </c>
       <c r="I8">
-        <v>0.5679120330803951</v>
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J8">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,7 +749,10 @@
         <v>-0.05124389339762181</v>
       </c>
       <c r="H9">
-        <v>0.5520662240532093</v>
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I9">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +775,10 @@
         <v>-0.01550102094271821</v>
       </c>
       <c r="G10">
-        <v>0.5207385776695821</v>
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H10">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +798,10 @@
         <v>0.01671636730576187</v>
       </c>
       <c r="F11">
-        <v>0.5331267034972994</v>
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G11">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,7 +818,10 @@
         <v>-0.09976821105225223</v>
       </c>
       <c r="E12">
-        <v>0.5482319751491519</v>
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F12">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -817,7 +835,10 @@
         <v>-0.08623093880433602</v>
       </c>
       <c r="D13">
-        <v>0.4852590561591889</v>
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E13">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -828,7 +849,10 @@
         <v>0.167618103061072</v>
       </c>
       <c r="C14">
-        <v>0.5845771063412253</v>
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D14">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6286367975806744</v>
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C15">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.3538576297953431</v>
+        <v>0.1723813810668744</v>
       </c>
       <c r="C2">
-        <v>0.4918198143377789</v>
+        <v>0.3499908675985048</v>
       </c>
       <c r="D2">
-        <v>0.02616020827444671</v>
+        <v>0.6691348296765106</v>
       </c>
       <c r="E2">
-        <v>0.7056676249657313</v>
+        <v>0.8300803312953138</v>
       </c>
       <c r="F2">
-        <v>0.9099227904698376</v>
+        <v>0.5122925844322204</v>
       </c>
       <c r="G2">
-        <v>0.4696485924218674</v>
+        <v>0.3934798787210216</v>
       </c>
       <c r="H2">
-        <v>0.3872693173527261</v>
+        <v>0.6635913754756477</v>
       </c>
       <c r="I2">
-        <v>0.6785207862006621</v>
+        <v>0.5073009638889382</v>
       </c>
       <c r="J2">
-        <v>0.5031320576645155</v>
+        <v>0.6562794631732567</v>
       </c>
       <c r="K2">
-        <v>0.6535938957934404</v>
+        <v>0.3761651213703216</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5142477939707875</v>
+        <v>0.3724188472315134</v>
       </c>
       <c r="C3">
-        <v>0.02876374783689539</v>
+        <v>0.6717383692389594</v>
       </c>
       <c r="D3">
-        <v>0.683599939311716</v>
+        <v>0.8080126456412985</v>
       </c>
       <c r="E3">
-        <v>0.9039408101654827</v>
+        <v>0.5063106041278653</v>
       </c>
       <c r="F3">
-        <v>0.4643053422394562</v>
+        <v>0.3881366285386105</v>
       </c>
       <c r="G3">
-        <v>0.3769007839823598</v>
+        <v>0.6532228421052815</v>
       </c>
       <c r="H3">
-        <v>0.6700434640770384</v>
+        <v>0.4988236417653144</v>
       </c>
       <c r="I3">
-        <v>0.4953597493577047</v>
+        <v>0.6485071548664459</v>
       </c>
       <c r="J3">
-        <v>0.6449699222604717</v>
+        <v>0.367541147837353</v>
       </c>
       <c r="K3">
-        <v>0.3699768206640927</v>
+        <v>0.2069891273051463</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.05018831929411549</v>
+        <v>0.6931629406961795</v>
       </c>
       <c r="C4">
-        <v>0.8037777881109285</v>
+        <v>0.9281904944405108</v>
       </c>
       <c r="D4">
-        <v>0.8147464657516995</v>
+        <v>0.4171162597140823</v>
       </c>
       <c r="E4">
-        <v>0.4345783383908784</v>
+        <v>0.3584096246900327</v>
       </c>
       <c r="F4">
-        <v>0.3855269040122699</v>
+        <v>0.6618489621351915</v>
       </c>
       <c r="G4">
-        <v>0.6441032906516032</v>
+        <v>0.4728834683398792</v>
       </c>
       <c r="H4">
-        <v>0.4725811863294772</v>
+        <v>0.6257285918382185</v>
       </c>
       <c r="I4">
-        <v>0.631351887111854</v>
+        <v>0.3539231126887352</v>
       </c>
       <c r="J4">
-        <v>0.3514560234789169</v>
+        <v>0.1884683301199705</v>
       </c>
       <c r="K4">
-        <v>0.1878533956106533</v>
+        <v>0.0637708202161355</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.761457155790539</v>
+        <v>0.8858698621201214</v>
       </c>
       <c r="C5">
-        <v>0.7855419918959663</v>
+        <v>0.3879117858583491</v>
       </c>
       <c r="D5">
-        <v>0.4315577385859573</v>
+        <v>0.3553890248851115</v>
       </c>
       <c r="E5">
-        <v>0.3666656204007895</v>
+        <v>0.6429876785237111</v>
       </c>
       <c r="F5">
-        <v>0.623772159586399</v>
+        <v>0.4525523372746749</v>
       </c>
       <c r="G5">
-        <v>0.4580510308952294</v>
+        <v>0.6111984364039706</v>
       </c>
       <c r="H5">
-        <v>0.6147108416195859</v>
+        <v>0.3372820671964672</v>
       </c>
       <c r="I5">
-        <v>0.3338721780501667</v>
+        <v>0.1708844846912203</v>
       </c>
       <c r="J5">
-        <v>0.1713795120806105</v>
+        <v>0.04729693668609269</v>
       </c>
       <c r="K5">
-        <v>0.04814754147425859</v>
+        <v>0.5643005784802194</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.125739732513876</v>
+        <v>0.7281095264762592</v>
       </c>
       <c r="C6">
-        <v>0.5069288003698943</v>
+        <v>0.4307600866690486</v>
       </c>
       <c r="D6">
-        <v>0.1755723340877904</v>
+        <v>0.451894392210712</v>
       </c>
       <c r="E6">
-        <v>0.6484660721731321</v>
+        <v>0.4772462498614081</v>
       </c>
       <c r="F6">
-        <v>0.4674304344515254</v>
+        <v>0.6205778399602666</v>
       </c>
       <c r="G6">
-        <v>0.5599000430081948</v>
+        <v>0.2824712685850762</v>
       </c>
       <c r="H6">
-        <v>0.3149780871614969</v>
+        <v>0.1519903938025505</v>
       </c>
       <c r="I6">
-        <v>0.1565155112655648</v>
+        <v>0.03243293587104695</v>
       </c>
       <c r="J6">
-        <v>0.01943583084488787</v>
+        <v>0.5355888678508487</v>
       </c>
       <c r="K6">
-        <v>0.5403464745801891</v>
+        <v>0.3304428394308724</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.9576236723601449</v>
+        <v>0.8814549586592991</v>
       </c>
       <c r="C7">
-        <v>0.2226830363001488</v>
+        <v>0.4990050944230704</v>
       </c>
       <c r="D7">
-        <v>0.4081828413823239</v>
+        <v>0.2369630190705999</v>
       </c>
       <c r="E7">
-        <v>0.5033755155173882</v>
+        <v>0.6565229210261294</v>
       </c>
       <c r="F7">
-        <v>0.557849285568602</v>
+        <v>0.2804205111454833</v>
       </c>
       <c r="G7">
-        <v>0.2384098477254667</v>
+        <v>0.07542215436652031</v>
       </c>
       <c r="H7">
-        <v>0.1291161168902814</v>
+        <v>0.005033541495763572</v>
       </c>
       <c r="I7">
-        <v>-0.006853219352837503</v>
+        <v>0.5092998176531234</v>
       </c>
       <c r="J7">
-        <v>0.4969491838668565</v>
-      </c>
-      <c r="K7">
-        <v>0.2970525035592049</v>
+        <v>0.2870455487175398</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +696,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5350086232236873</v>
+        <v>0.8113306813466088</v>
       </c>
       <c r="C8">
-        <v>0.5414715811178482</v>
+        <v>0.3702517588061242</v>
       </c>
       <c r="D8">
-        <v>0.3242970937011966</v>
+        <v>0.4774444992099378</v>
       </c>
       <c r="E8">
-        <v>0.5860435243391693</v>
+        <v>0.3086147499160505</v>
       </c>
       <c r="F8">
-        <v>0.2744351589178602</v>
+        <v>0.1114474655589138</v>
       </c>
       <c r="G8">
-        <v>0.09157454668606776</v>
+        <v>-0.03250802870845004</v>
       </c>
       <c r="H8">
-        <v>-0.01239555844019874</v>
+        <v>0.5037574785657621</v>
       </c>
       <c r="I8">
-        <v>0.5011245128056051</v>
-      </c>
-      <c r="J8">
-        <v>0.2858677898194339</v>
+        <v>0.2912208776562884</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +725,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7770620722256893</v>
+        <v>0.6058422499139654</v>
       </c>
       <c r="C9">
-        <v>0.4089758345755062</v>
+        <v>0.5621232400842474</v>
       </c>
       <c r="D9">
-        <v>0.4404431577054521</v>
+        <v>0.1630143832823334</v>
       </c>
       <c r="E9">
-        <v>0.2843889017771028</v>
+        <v>0.1214012084181564</v>
       </c>
       <c r="F9">
-        <v>0.1069397163856127</v>
+        <v>-0.01714285900890511</v>
       </c>
       <c r="G9">
-        <v>-0.05124389339762181</v>
+        <v>0.464909143608339</v>
       </c>
       <c r="H9">
-        <v>0.4852787037784192</v>
-      </c>
-      <c r="I9">
-        <v>0.2775335613519331</v>
+        <v>0.2753750686291025</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +751,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.720000021056889</v>
+        <v>0.8731474265656303</v>
       </c>
       <c r="C10">
-        <v>0.5575319321166473</v>
+        <v>0.2801031576935286</v>
       </c>
       <c r="D10">
-        <v>0.121924760327536</v>
+        <v>-0.04106293303141043</v>
       </c>
       <c r="E10">
-        <v>0.1358986668508143</v>
+        <v>0.01181609145629647</v>
       </c>
       <c r="F10">
-        <v>-0.01550102094271821</v>
+        <v>0.5006520160632426</v>
       </c>
       <c r="G10">
-        <v>0.4539510573947921</v>
-      </c>
-      <c r="H10">
-        <v>0.2743085116504074</v>
+        <v>0.2440474222454754</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +774,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8043571095207618</v>
+        <v>0.526928335097643</v>
       </c>
       <c r="C11">
-        <v>0.1395806278654255</v>
+        <v>-0.02340706549352092</v>
       </c>
       <c r="D11">
-        <v>0.04127642773981979</v>
+        <v>-0.08280614765469801</v>
       </c>
       <c r="E11">
-        <v>0.01671636730576187</v>
+        <v>0.5328694043117227</v>
       </c>
       <c r="F11">
-        <v>0.4663391832225094</v>
-      </c>
-      <c r="G11">
-        <v>0.2534447081011285</v>
+        <v>0.2564355480731927</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +794,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.3792569872816374</v>
+        <v>0.216269293922691</v>
       </c>
       <c r="C12">
-        <v>0.1263006712090333</v>
+        <v>0.002218095814515486</v>
       </c>
       <c r="D12">
-        <v>-0.09976821105225223</v>
+        <v>0.4163848259537086</v>
       </c>
       <c r="E12">
-        <v>0.4814444548743619</v>
-      </c>
-      <c r="F12">
-        <v>0.2766837437271186</v>
+        <v>0.2715408197250452</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +811,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.2911607482431205</v>
+        <v>0.1670781728486028</v>
       </c>
       <c r="C13">
-        <v>-0.08623093880433602</v>
+        <v>0.4299220982016248</v>
       </c>
       <c r="D13">
-        <v>0.4184715358843989</v>
-      </c>
-      <c r="E13">
-        <v>0.2867219094086165</v>
+        <v>0.2085679007350822</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +825,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.167618103061072</v>
+        <v>0.6837711400670328</v>
       </c>
       <c r="C14">
-        <v>0.5177895860664353</v>
-      </c>
-      <c r="D14">
-        <v>0.1751453671933744</v>
+        <v>0.3078859509171186</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.5618492773058843</v>
-      </c>
-      <c r="C15">
-        <v>0.1965658720679752</v>
+        <v>0.3519456421565676</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_latest_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.1723813810668744</v>
+        <v>-0.3538576297953431</v>
       </c>
       <c r="C2">
-        <v>0.3499908675985048</v>
+        <v>0.4918198143377789</v>
       </c>
       <c r="D2">
-        <v>0.6691348296765106</v>
+        <v>0.02616020827444671</v>
       </c>
       <c r="E2">
-        <v>0.8300803312953138</v>
+        <v>0.7056676249657313</v>
       </c>
       <c r="F2">
-        <v>0.5122925844322204</v>
+        <v>0.9099227904698376</v>
       </c>
       <c r="G2">
-        <v>0.3934798787210216</v>
+        <v>0.4696485924218674</v>
       </c>
       <c r="H2">
-        <v>0.6635913754756477</v>
+        <v>0.3872693173527261</v>
       </c>
       <c r="I2">
-        <v>0.5073009638889382</v>
+        <v>0.6785207862006621</v>
       </c>
       <c r="J2">
-        <v>0.6562794631732567</v>
+        <v>0.5031320576645155</v>
       </c>
       <c r="K2">
-        <v>0.3761651213703216</v>
+        <v>0.6535938957934404</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3724188472315134</v>
+        <v>0.5142477939707875</v>
       </c>
       <c r="C3">
-        <v>0.6717383692389594</v>
+        <v>0.02876374783689539</v>
       </c>
       <c r="D3">
-        <v>0.8080126456412985</v>
+        <v>0.683599939311716</v>
       </c>
       <c r="E3">
-        <v>0.5063106041278653</v>
+        <v>0.9039408101654827</v>
       </c>
       <c r="F3">
-        <v>0.3881366285386105</v>
+        <v>0.4643053422394562</v>
       </c>
       <c r="G3">
-        <v>0.6532228421052815</v>
+        <v>0.3769007839823598</v>
       </c>
       <c r="H3">
-        <v>0.4988236417653144</v>
+        <v>0.6700434640770384</v>
       </c>
       <c r="I3">
-        <v>0.6485071548664459</v>
+        <v>0.4953597493577047</v>
       </c>
       <c r="J3">
-        <v>0.367541147837353</v>
+        <v>0.6449699222604717</v>
       </c>
       <c r="K3">
-        <v>0.2069891273051463</v>
+        <v>0.3699768206640927</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.6931629406961795</v>
+        <v>0.05018831929411549</v>
       </c>
       <c r="C4">
-        <v>0.9281904944405108</v>
+        <v>0.8037777881109285</v>
       </c>
       <c r="D4">
-        <v>0.4171162597140823</v>
+        <v>0.8147464657516995</v>
       </c>
       <c r="E4">
-        <v>0.3584096246900327</v>
+        <v>0.4345783383908784</v>
       </c>
       <c r="F4">
-        <v>0.6618489621351915</v>
+        <v>0.3855269040122699</v>
       </c>
       <c r="G4">
-        <v>0.4728834683398792</v>
+        <v>0.6441032906516032</v>
       </c>
       <c r="H4">
-        <v>0.6257285918382185</v>
+        <v>0.4725811863294772</v>
       </c>
       <c r="I4">
-        <v>0.3539231126887352</v>
+        <v>0.631351887111854</v>
       </c>
       <c r="J4">
-        <v>0.1884683301199705</v>
+        <v>0.3514560234789169</v>
       </c>
       <c r="K4">
-        <v>0.0637708202161355</v>
+        <v>0.1878533956106533</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8858698621201214</v>
+        <v>0.761457155790539</v>
       </c>
       <c r="C5">
-        <v>0.3879117858583491</v>
+        <v>0.7855419918959663</v>
       </c>
       <c r="D5">
-        <v>0.3553890248851115</v>
+        <v>0.4315577385859573</v>
       </c>
       <c r="E5">
-        <v>0.6429876785237111</v>
+        <v>0.3666656204007895</v>
       </c>
       <c r="F5">
-        <v>0.4525523372746749</v>
+        <v>0.623772159586399</v>
       </c>
       <c r="G5">
-        <v>0.6111984364039706</v>
+        <v>0.4580510308952294</v>
       </c>
       <c r="H5">
-        <v>0.3372820671964672</v>
+        <v>0.6147108416195859</v>
       </c>
       <c r="I5">
-        <v>0.1708844846912203</v>
+        <v>0.3338721780501667</v>
       </c>
       <c r="J5">
-        <v>0.04729693668609269</v>
+        <v>0.1713795120806105</v>
       </c>
       <c r="K5">
-        <v>0.5643005784802194</v>
+        <v>0.04814754147425859</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.7281095264762592</v>
+        <v>1.125739732513876</v>
       </c>
       <c r="C6">
-        <v>0.4307600866690486</v>
+        <v>0.5069288003698943</v>
       </c>
       <c r="D6">
-        <v>0.451894392210712</v>
+        <v>0.1755723340877904</v>
       </c>
       <c r="E6">
-        <v>0.4772462498614081</v>
+        <v>0.6484660721731321</v>
       </c>
       <c r="F6">
-        <v>0.6205778399602666</v>
+        <v>0.4674304344515254</v>
       </c>
       <c r="G6">
-        <v>0.2824712685850762</v>
+        <v>0.5599000430081948</v>
       </c>
       <c r="H6">
-        <v>0.1519903938025505</v>
+        <v>0.3149780871614969</v>
       </c>
       <c r="I6">
-        <v>0.03243293587104695</v>
+        <v>0.1565155112655648</v>
       </c>
       <c r="J6">
-        <v>0.5355888678508487</v>
+        <v>0.01943583084488787</v>
       </c>
       <c r="K6">
-        <v>0.3304428394308724</v>
+        <v>0.5403464745801891</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.8814549586592991</v>
+        <v>0.9576236723601449</v>
       </c>
       <c r="C7">
-        <v>0.4990050944230704</v>
+        <v>0.2226830363001488</v>
       </c>
       <c r="D7">
-        <v>0.2369630190705999</v>
+        <v>0.4081828413823239</v>
       </c>
       <c r="E7">
-        <v>0.6565229210261294</v>
+        <v>0.5033755155173882</v>
       </c>
       <c r="F7">
-        <v>0.2804205111454833</v>
+        <v>0.557849285568602</v>
       </c>
       <c r="G7">
-        <v>0.07542215436652031</v>
+        <v>0.2384098477254667</v>
       </c>
       <c r="H7">
-        <v>0.005033541495763572</v>
+        <v>0.1291161168902814</v>
       </c>
       <c r="I7">
-        <v>0.5092998176531234</v>
+        <v>-0.006853219352837503</v>
       </c>
       <c r="J7">
-        <v>0.2870455487175398</v>
+        <v>0.4969491838668565</v>
+      </c>
+      <c r="K7">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.8113306813466088</v>
+        <v>0.5350086232236873</v>
       </c>
       <c r="C8">
-        <v>0.3702517588061242</v>
+        <v>0.5414715811178482</v>
       </c>
       <c r="D8">
-        <v>0.4774444992099378</v>
+        <v>0.3242970937011966</v>
       </c>
       <c r="E8">
-        <v>0.3086147499160505</v>
+        <v>0.5860435243391693</v>
       </c>
       <c r="F8">
-        <v>0.1114474655589138</v>
+        <v>0.2744351589178602</v>
       </c>
       <c r="G8">
-        <v>-0.03250802870845004</v>
+        <v>0.09157454668606776</v>
       </c>
       <c r="H8">
-        <v>0.5037574785657621</v>
+        <v>-0.01239555844019874</v>
       </c>
       <c r="I8">
-        <v>0.2912208776562884</v>
+        <v>0.5011245128056051</v>
+      </c>
+      <c r="J8">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6058422499139654</v>
+        <v>0.7770620722256893</v>
       </c>
       <c r="C9">
-        <v>0.5621232400842474</v>
+        <v>0.4089758345755062</v>
       </c>
       <c r="D9">
-        <v>0.1630143832823334</v>
+        <v>0.4404431577054521</v>
       </c>
       <c r="E9">
-        <v>0.1214012084181564</v>
+        <v>0.2843889017771028</v>
       </c>
       <c r="F9">
-        <v>-0.01714285900890511</v>
+        <v>0.1069397163856127</v>
       </c>
       <c r="G9">
-        <v>0.464909143608339</v>
+        <v>-0.05124389339762181</v>
       </c>
       <c r="H9">
-        <v>0.2753750686291025</v>
+        <v>0.4852787037784192</v>
+      </c>
+      <c r="I9">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.8731474265656303</v>
+        <v>0.720000021056889</v>
       </c>
       <c r="C10">
-        <v>0.2801031576935286</v>
+        <v>0.5575319321166473</v>
       </c>
       <c r="D10">
-        <v>-0.04106293303141043</v>
+        <v>0.121924760327536</v>
       </c>
       <c r="E10">
-        <v>0.01181609145629647</v>
+        <v>0.1358986668508143</v>
       </c>
       <c r="F10">
-        <v>0.5006520160632426</v>
+        <v>-0.01550102094271821</v>
       </c>
       <c r="G10">
-        <v>0.2440474222454754</v>
+        <v>0.4539510573947921</v>
+      </c>
+      <c r="H10">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.526928335097643</v>
+        <v>0.8043571095207618</v>
       </c>
       <c r="C11">
-        <v>-0.02340706549352092</v>
+        <v>0.1395806278654255</v>
       </c>
       <c r="D11">
-        <v>-0.08280614765469801</v>
+        <v>0.04127642773981979</v>
       </c>
       <c r="E11">
-        <v>0.5328694043117227</v>
+        <v>0.01671636730576187</v>
       </c>
       <c r="F11">
-        <v>0.2564355480731927</v>
+        <v>0.4663391832225094</v>
+      </c>
+      <c r="G11">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.216269293922691</v>
+        <v>0.3792569872816374</v>
       </c>
       <c r="C12">
-        <v>0.002218095814515486</v>
+        <v>0.1263006712090333</v>
       </c>
       <c r="D12">
-        <v>0.4163848259537086</v>
+        <v>-0.09976821105225223</v>
       </c>
       <c r="E12">
-        <v>0.2715408197250452</v>
+        <v>0.4814444548743619</v>
+      </c>
+      <c r="F12">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,13 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.1670781728486028</v>
+        <v>0.2911607482431205</v>
       </c>
       <c r="C13">
-        <v>0.4299220982016248</v>
+        <v>-0.08623093880433602</v>
       </c>
       <c r="D13">
-        <v>0.2085679007350822</v>
+        <v>0.4184715358843989</v>
+      </c>
+      <c r="E13">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6837711400670328</v>
+        <v>0.167618103061072</v>
       </c>
       <c r="C14">
-        <v>0.3078859509171186</v>
+        <v>0.5177895860664353</v>
+      </c>
+      <c r="D14">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3519456421565676</v>
+        <v>0.5618492773058843</v>
+      </c>
+      <c r="C15">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>
